--- a/DOC/製造/スケジュール.xlsx
+++ b/DOC/製造/スケジュール.xlsx
@@ -25,160 +25,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>給料自動作成</t>
-    <rPh sb="0" eb="2">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マスタ管理機能。リスト/新規/更新：</t>
-    <rPh sb="3" eb="7">
-      <t>カンリキノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>システム</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>EMS</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>状態</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>EMSM</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>製造中</t>
-    <rPh sb="0" eb="2">
-      <t>セイゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>交通情報テーブル</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>未</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>給料情報テーブル</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>給料管理機能</t>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>自動機能完了</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>更新機能、製造中</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テーブル</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>社員</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マスタ_基本給</t>
   </si>
   <si>
     <t>勤怠テーブル</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マスタ_厚生保険料</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マスタ_厚生子育徴収率</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マスタ_雇用保険徴収率</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マスタ_諸税(控除）</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ_所得税と住民税</t>
   </si>
 </sst>
 </file>
@@ -562,30 +480,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFD8BAC-D7E7-4FDF-B3C3-68C9E04D8E73}">
   <dimension ref="A2:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="B20" sqref="B20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="35" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="5.625" customWidth="1"/>
+    <col min="9" max="9" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="5.625" customWidth="1"/>
+    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="5.625" customWidth="1"/>
+    <col min="15" max="15" width="5.625" customWidth="1"/>
+    <col min="16" max="16" width="5.625" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="18" max="18" width="5.625" customWidth="1"/>
+    <col min="19" max="19" width="5.625" customWidth="1"/>
+    <col min="20" max="20" width="5.625" customWidth="1"/>
+    <col min="21" max="21" width="5.625" customWidth="1"/>
+    <col min="22" max="22" width="5.625" customWidth="1"/>
+    <col min="23" max="23" width="5.625" customWidth="1"/>
+    <col min="24" max="24" width="5.625" customWidth="1"/>
+    <col min="25" max="25" width="5.625" customWidth="1"/>
+    <col min="26" max="26" width="5.625" customWidth="1"/>
+    <col min="27" max="27" width="5.625" customWidth="1"/>
+    <col min="28" max="28" width="5.625" customWidth="1"/>
+    <col min="29" max="29" width="5.625" customWidth="1"/>
+    <col min="30" max="30" width="5.625" customWidth="1"/>
+    <col min="31" max="31" width="5.625" customWidth="1"/>
+    <col min="32" max="32" width="5.625" customWidth="1"/>
+    <col min="33" max="33" width="5.625" customWidth="1"/>
+    <col min="34" max="34" width="5.625" customWidth="1"/>
+    <col min="35" max="35" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -694,7 +642,7 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -705,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -741,7 +689,7 @@
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -788,7 +736,7 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -835,7 +783,7 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -846,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -882,7 +830,7 @@
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -893,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -929,7 +877,7 @@
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -940,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -976,18 +924,18 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1023,7 +971,7 @@
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1070,7 +1018,7 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -1111,10 +1059,8 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
+    <row r="14">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1104,7 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
